--- a/data/trans_dic/P6905-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6905-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,63%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>27,02; 59,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>20,88; 46,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>20,57; 60,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>40,77; 80,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>35,6; 65,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>28,47; 66,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>39,11; 64,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>30,25; 50,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>29,7; 58,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,13%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>14,16; 38,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>17,94; 42,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>22,8; 42,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>8,11; 38,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>14,07; 42,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>8,66; 37,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>28,83; 59,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>44,02; 69,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>16,08; 35,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>17,86; 37,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>28,16; 45,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>27,52; 49,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,61%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>12,83; 43,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>12,01; 48,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>3,87; 30,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>0,0; 12,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>4,63; 40,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>5,5; 46,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 42,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>10,82; 30,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>12,12; 35,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>13,4; 39,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>5,0; 27,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>7,07; 18,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>13,99; 38,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>22,31; 43,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>23,18; 59,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>18,99; 60,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>14,42; 53,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>45,49; 71,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>35,72; 73,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>20,27; 50,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>17,59; 38,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>34,81; 52,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>34,42; 59,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>23,66; 48,32</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>7,92; 44,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>5,6; 43,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>16,83; 71,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>3,81; 31,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>14,08; 85,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>25,97; 90,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>19,82; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>3,44; 33,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>16,16; 50,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>18,48; 58,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>28,44; 72,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>6,44; 26,94</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>31,92; 62,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>11,43; 37,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>4,26; 35,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>9,33; 36,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>36,13; 86,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>6,17; 50,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>13,95; 87,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>14,98; 39,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>37,91; 64,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>13,19; 37,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>9,72; 40,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>14,1; 32,5</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,52%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>22,92; 43,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>16,31; 41,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>8,36; 26,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>15,76; 36,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>26,39; 56,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>29,89; 60,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>26,38; 52,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>30,4; 50,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>27,56; 43,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>26,07; 45,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>17,97; 33,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>25,59; 40,55</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>18,89; 35,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>6,25; 26,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>14,36; 41,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>14,43; 36,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>30,21; 57,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>17,47; 56,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>4,78; 42,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>15,28; 55,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>24,23; 39,03</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>13,65; 34,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>13,95; 37,22</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>18,55; 39,96</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>25,66; 34,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,08; 31,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>22,77; 32,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>17,67; 27,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>34,12; 48,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>33,92; 47,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,96; 48,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>29,66; 40,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,8; 37,02</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,2; 36,87</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,67; 36,51</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>25,3; 32,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6905-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>44,22%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,38; 64,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 60,7</t>
+          <t>22,42; 64,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,6; 83,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,47; 66,25</t>
+          <t>29,07; 67,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,3; 69,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 58,51</t>
+          <t>30,51; 61,3</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>56,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>37,62%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 38,63</t>
+          <t>8,48; 40,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,02; 69,81</t>
+          <t>43,79; 69,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,52; 49,98</t>
+          <t>27,16; 49,78</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,39</t>
+          <t>0,0; 12,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 30,18</t>
+          <t>10,86; 30,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 18,45</t>
+          <t>7,04; 18,34</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>29,72%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,31; 43,57</t>
+          <t>7,08; 31,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 60,18</t>
+          <t>19,54; 61,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,49; 71,87</t>
+          <t>30,26; 69,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,27; 50,53</t>
+          <t>7,08; 46,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,81; 52,34</t>
+          <t>19,87; 42,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,66; 48,32</t>
+          <t>12,14; 45,22</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 31,63</t>
+          <t>3,76; 31,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 33,92</t>
+          <t>3,48; 33,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 26,94</t>
+          <t>6,33; 26,61</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,53%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 36,25</t>
+          <t>9,81; 36,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,98; 39,19</t>
+          <t>15,0; 39,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,1; 32,5</t>
+          <t>14,13; 32,49</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,76; 36,1</t>
+          <t>15,65; 36,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,4; 50,96</t>
+          <t>30,1; 50,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,59; 40,55</t>
+          <t>25,08; 39,99</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>25,96%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,43; 36,4</t>
+          <t>14,43; 36,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,28; 55,1</t>
+          <t>15,26; 52,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,55; 39,96</t>
+          <t>18,28; 38,21</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>27,67%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,67; 27,71</t>
+          <t>17,97; 28,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,66; 40,56</t>
+          <t>23,11; 38,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,3; 32,47</t>
+          <t>22,88; 31,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6905-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 59,55</t>
+          <t>27,51; 60,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,38; 64,47</t>
+          <t>32,74; 66,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 46,89</t>
+          <t>20,74; 48,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 64,04</t>
+          <t>18,16; 64,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,77; 80,58</t>
+          <t>43,37; 80,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,6; 83,65</t>
+          <t>47,53; 84,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,6; 65,98</t>
+          <t>34,33; 65,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,07; 67,22</t>
+          <t>28,26; 66,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,11; 64,04</t>
+          <t>38,57; 63,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 69,23</t>
+          <t>45,02; 68,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 50,14</t>
+          <t>30,0; 50,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 61,3</t>
+          <t>28,91; 59,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 38,42</t>
+          <t>13,63; 36,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 42,61</t>
+          <t>17,92; 41,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 42,71</t>
+          <t>22,65; 43,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 40,53</t>
+          <t>6,95; 38,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 42,18</t>
+          <t>14,0; 42,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,66; 37,14</t>
+          <t>9,02; 39,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,83; 59,39</t>
+          <t>27,94; 57,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,79; 69,51</t>
+          <t>43,32; 68,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 35,37</t>
+          <t>16,39; 34,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 37,73</t>
+          <t>17,3; 36,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,16; 45,48</t>
+          <t>27,9; 45,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,16; 49,78</t>
+          <t>28,39; 49,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 43,9</t>
+          <t>11,67; 43,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 48,11</t>
+          <t>12,14; 51,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 30,04</t>
+          <t>3,97; 33,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,31</t>
+          <t>0,0; 12,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 40,42</t>
+          <t>4,64; 41,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 46,38</t>
+          <t>5,46; 46,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,01</t>
+          <t>0,0; 42,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 30,24</t>
+          <t>10,57; 29,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 35,47</t>
+          <t>13,29; 37,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,4; 39,31</t>
+          <t>13,66; 40,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 27,24</t>
+          <t>5,17; 26,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 18,34</t>
+          <t>6,63; 18,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 38,03</t>
+          <t>14,94; 37,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 31,82</t>
+          <t>8,1; 31,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,18; 59,15</t>
+          <t>23,46; 59,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 61,27</t>
+          <t>19,37; 59,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 53,83</t>
+          <t>14,57; 54,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 69,57</t>
+          <t>31,54; 69,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 73,19</t>
+          <t>33,89; 71,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 46,07</t>
+          <t>8,22; 47,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 38,67</t>
+          <t>17,9; 38,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,87; 42,61</t>
+          <t>20,31; 41,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,42; 59,92</t>
+          <t>33,73; 60,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 45,22</t>
+          <t>12,65; 45,66</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 44,33</t>
+          <t>8,2; 44,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 43,3</t>
+          <t>0,0; 44,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,83; 71,93</t>
+          <t>15,72; 70,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 31,26</t>
+          <t>3,81; 32,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 85,58</t>
+          <t>14,11; 85,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,97; 90,81</t>
+          <t>29,25; 91,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,82; 100,0</t>
+          <t>19,42; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 33,06</t>
+          <t>3,68; 36,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 50,16</t>
+          <t>16,23; 49,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,48; 58,64</t>
+          <t>21,89; 60,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,44; 72,46</t>
+          <t>27,53; 73,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 26,61</t>
+          <t>6,19; 27,09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,92; 62,52</t>
+          <t>29,2; 61,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,43; 37,43</t>
+          <t>10,95; 39,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 35,13</t>
+          <t>4,21; 32,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 36,52</t>
+          <t>9,33; 36,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,13; 86,57</t>
+          <t>35,89; 86,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 50,13</t>
+          <t>6,06; 50,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 87,77</t>
+          <t>13,96; 87,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,0; 39,13</t>
+          <t>14,01; 38,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,91; 64,81</t>
+          <t>36,42; 65,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,19; 37,11</t>
+          <t>13,26; 35,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 40,86</t>
+          <t>8,04; 39,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,13; 32,49</t>
+          <t>14,14; 33,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 43,95</t>
+          <t>23,3; 45,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 41,65</t>
+          <t>16,08; 42,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 26,4</t>
+          <t>9,6; 26,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,65; 36,08</t>
+          <t>15,71; 37,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,39; 56,11</t>
+          <t>25,52; 54,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,89; 60,12</t>
+          <t>29,9; 58,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,38; 52,38</t>
+          <t>25,19; 51,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,1; 50,65</t>
+          <t>29,9; 50,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,56; 43,67</t>
+          <t>27,37; 43,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,07; 45,72</t>
+          <t>25,72; 44,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,97; 33,63</t>
+          <t>17,93; 33,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,08; 39,99</t>
+          <t>25,42; 39,62</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,89; 35,91</t>
+          <t>19,15; 35,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 26,08</t>
+          <t>6,25; 26,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,36; 41,21</t>
+          <t>13,49; 42,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,43; 36,58</t>
+          <t>13,98; 37,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,21; 57,71</t>
+          <t>30,39; 57,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,47; 56,59</t>
+          <t>17,93; 58,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,78; 42,43</t>
+          <t>4,54; 39,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,26; 52,77</t>
+          <t>15,41; 50,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,23; 39,03</t>
+          <t>24,51; 39,42</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,65; 34,24</t>
+          <t>12,97; 33,65</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,95; 37,22</t>
+          <t>13,39; 35,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,28; 38,21</t>
+          <t>17,83; 39,16</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>25,66; 34,46</t>
+          <t>25,47; 34,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,08; 31,07</t>
+          <t>21,41; 31,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,77; 32,58</t>
+          <t>22,91; 32,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,97; 28,18</t>
+          <t>17,89; 29,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,12; 48,05</t>
+          <t>35,05; 47,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,92; 47,98</t>
+          <t>34,47; 48,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,96; 48,84</t>
+          <t>34,99; 48,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,11; 38,05</t>
+          <t>23,67; 38,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,8; 37,02</t>
+          <t>30,19; 37,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>28,2; 36,87</t>
+          <t>27,81; 36,27</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,51</t>
+          <t>28,26; 36,42</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,68</t>
+          <t>23,13; 31,49</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores de cabeza</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18197</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19347</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19052</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10097</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18343</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19737</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20660</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7515</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36540</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39084</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>39712</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17612</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11788; 25732</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12931; 26092</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12149; 28321</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4370; 15474</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12412; 23113</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13857; 24534</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14036; 26878</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4453; 10465</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27563; 45277</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30901; 47292</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29842; 50277</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11514; 23622</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17203</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16536</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26833</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9017</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8641</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18723</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25485</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25844</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23667</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45556</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>34502</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9865; 26399</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10138; 23729</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18750; 35884</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3216; 17639</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4577; 14018</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3097; 13587</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11930; 24697</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19685; 31146</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17220; 36360</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15727; 33322</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35004; 56616</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26038; 45424</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9343</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6688</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2652</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8967</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13334</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10691</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10953</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4273; 15833</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2947; 12398</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>843; 7150</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5958</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1007; 8935</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>979; 8428</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5326</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4856; 13691</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7756; 21972</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5764; 17075</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1746; 9059</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6327; 17533</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14575</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7841</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13309</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16007</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7294</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14499</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16051</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19953</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21869</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22339</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29360</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>35960</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8716; 21971</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3634; 14265</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7615; 19326</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7815; 24170</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3307; 12433</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9315; 20480</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10145; 21319</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6629; 38566</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14503; 31147</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15108; 30927</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21047; 37581</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15303; 55248</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5409</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6448</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3932</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7785</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1477</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10792</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10452</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1882; 10299</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7242</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2338; 10548</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>677; 5716</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>983; 5964</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3411; 10624</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1121; 5771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>404; 3990</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4857; 14773</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6092; 16869</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5682; 15097</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1779; 7786</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>19592</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9805</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6273</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9173</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28764</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13580</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13930</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12210; 25876</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4751; 16930</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>945; 7269</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2950; 11533</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5058; 12154</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>920; 7685</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1036; 6476</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4234; 11535</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20360; 36730</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7763; 20900</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2400; 11743</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8745; 20751</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>28934</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15194</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>13148</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18012</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17250</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20142</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>20927</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>28002</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>46185</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35336</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34075</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>46014</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20610; 40378</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8752; 23361</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7518; 21044</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>11495; 27136</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11109; 23603</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13869; 27185</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14028; 28664</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21087; 35629</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36121; 57559</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25930; 44429</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>24029; 44407</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>36524; 56939</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28639</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6125</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>10646</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>13585</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>21545</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>10977</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>15351</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>50184</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>17102</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>14618</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>28936</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>20859; 38697</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2884; 11998</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5299; 16707</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>7935; 21547</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>15131; 28723</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5498; 17924</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>971; 8466</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>8433; 27541</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>38895; 62558</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>9962; 25847</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>8121; 21665</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>19879; 43654</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>141892</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>84545</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>95064</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>77549</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>90168</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>88049</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>89574</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>114409</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>232061</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>172594</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>184638</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>191958</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>120280; 163652</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>69651; 102071</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>80193; 114490</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>60738; 99292</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>77154; 104241</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>74043; 103828</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>75682; 104613</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>83849; 135810</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>209046; 259159</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>150211; 195919</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>160012; 206249</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>160456; 218460</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>